--- a/src/excel/tolgas_vi.xlsx
+++ b/src/excel/tolgas_vi.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q39"/>
+  <dimension ref="A1:I39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -391,41 +391,6 @@
       <c r="I1" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -471,41 +436,6 @@
           <t>Форма проведения вступительных испытаний, проводимых университетом самостоятельно</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -551,41 +481,6 @@
           <t>Форма проведения вступительных испытаний, проводимых университетом самостоятельно</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -631,46 +526,12 @@
           <t>8</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>Международные экономические отношения</t>
@@ -704,41 +565,6 @@
       <c r="I5" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -786,51 +612,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>Таможенное дело</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>Математика</t>
@@ -864,41 +651,6 @@
       <c r="I7" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -946,46 +698,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Информатика и вычислительная техника</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -1031,46 +743,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Информационные системы и технологии</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="O9" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="P9" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -1116,46 +788,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>Прикладная информатика</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="O10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="P10" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1201,46 +833,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>Программная инженерия</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q11" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1286,46 +878,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Информационная безопасность</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="O12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P12" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1371,46 +923,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>Радиотехника</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P13" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q13" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1456,46 +968,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Инфокоммуникационные технологии и системы связи</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="M14" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="N14" t="inlineStr">
-        <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="O14" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="P14" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q14" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1541,46 +1013,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Технологические машины и оборудование</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N15" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="O15" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q15" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1626,46 +1058,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Управление качеством</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P16" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q16" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1711,51 +1103,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Технология изделий легкой промышленности</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="O17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P17" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
+      <c r="B18" t="inlineStr"/>
       <c r="C18" t="inlineStr">
         <is>
           <t>Основы технологии</t>
@@ -1789,41 +1142,6 @@
       <c r="I18" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P18" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q18" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -1871,51 +1189,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Конструирование изделий легкой промышленности</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P19" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q19" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
+      <c r="B20" t="inlineStr"/>
       <c r="C20" t="inlineStr">
         <is>
           <t>Математика</t>
@@ -1949,41 +1228,6 @@
       <c r="I20" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P20" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q20" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2031,46 +1275,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Экономика</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P21" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -2116,46 +1320,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>Менеджмент</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O22" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P22" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Q22" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -2201,46 +1365,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Государственное и муниципальное управление</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Q23" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -2286,51 +1410,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>Торговое дело</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O24" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P24" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Q24" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
+      <c r="B25" t="inlineStr"/>
       <c r="C25" t="inlineStr">
         <is>
           <t>История</t>
@@ -2364,41 +1449,6 @@
       <c r="I25" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q25" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2446,46 +1496,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Социальная работа</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N26" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P26" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Q26" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2531,51 +1541,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>Реклама и связи с общественностью</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P27" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q27" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
+      <c r="B28" t="inlineStr"/>
       <c r="C28" t="inlineStr">
         <is>
           <t>Математика</t>
@@ -2609,41 +1580,6 @@
       <c r="I28" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P28" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q28" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -2691,46 +1627,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>Сервис (Сервис электронной техники)</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q29" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2776,46 +1672,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>Сервис (Информационный сервис)</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Q30" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2861,51 +1717,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>Сервис (Сервис транспортных средств)</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P31" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q31" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
+      <c r="B32" t="inlineStr"/>
       <c r="C32" t="inlineStr">
         <is>
           <t>Обществознание</t>
@@ -2939,41 +1756,6 @@
       <c r="I32" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q32" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -3021,46 +1803,6 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>Туризм</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P33" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -3106,51 +1848,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>Гостиничное дело</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="P34" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="Q34" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
+      <c r="B35" t="inlineStr"/>
       <c r="C35" t="inlineStr">
         <is>
           <t>Обществознание</t>
@@ -3184,41 +1887,6 @@
       <c r="I35" t="inlineStr">
         <is>
           <t>Компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P35" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q35" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -3266,51 +1934,12 @@
           <t>Компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Социально-культурная деятельность</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="Q36" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
+      <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr">
         <is>
           <t>Композиция*</t>
@@ -3344,41 +1973,6 @@
       <c r="I37" t="inlineStr">
         <is>
           <t>Творческое испытание*, компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P37" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>0</t>
         </is>
       </c>
     </row>
@@ -3426,46 +2020,6 @@
           <t>Творческое испытание*, компьютерное тестирование</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>Дизайн</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="O38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P38" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q38" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -3509,46 +2063,6 @@
       <c r="I39" t="inlineStr">
         <is>
           <t>Творческое испытание*, компьютерное тестирование</t>
-        </is>
-      </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>Искусство костюма и текстиля</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="M39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="O39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="P39" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="Q39" t="inlineStr">
-        <is>
-          <t>-</t>
         </is>
       </c>
     </row>
